--- a/Test-Case-Template.xlsx
+++ b/Test-Case-Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>TEST DATA</t>
   </si>
@@ -34,9 +34,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>SCREEN NAME</t>
-  </si>
-  <si>
     <t>PREPARED BY</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>&lt;Integers&gt;</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -164,6 +158,60 @@
   </si>
   <si>
     <t>Transcriptor and Summarizer</t>
+  </si>
+  <si>
+    <t>AUDIO FILE SIZE</t>
+  </si>
+  <si>
+    <t>Audio file &gt; 5MB</t>
+  </si>
+  <si>
+    <t>Audio file &lt; 5MB</t>
+  </si>
+  <si>
+    <t>Transcribed Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sample-speech.mp3</t>
+  </si>
+  <si>
+    <t>large-file.mp3</t>
+  </si>
+  <si>
+    <t>Size Error Display</t>
+  </si>
+  <si>
+    <t>SZ_01</t>
+  </si>
+  <si>
+    <t>SZ_02</t>
+  </si>
+  <si>
+    <t>SZ_03</t>
+  </si>
+  <si>
+    <t>SZ_D1</t>
+  </si>
+  <si>
+    <t>SZ_D3</t>
+  </si>
+  <si>
+    <t>SZ_D2</t>
+  </si>
+  <si>
+    <t>No file provided</t>
+  </si>
+  <si>
+    <t>PROJECT NAME</t>
+  </si>
+  <si>
+    <t>MODULE NAME</t>
+  </si>
+  <si>
+    <t>SUMMARIZER &amp; SAVING FILE</t>
+  </si>
+  <si>
+    <t>2599 4589</t>
   </si>
 </sst>
 </file>
@@ -444,7 +492,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -474,6 +522,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -537,17 +597,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -857,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,165 +929,153 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="20" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="23">
+        <v>45387</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="19">
-        <v>45362</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="E8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:9" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="2:9" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="D10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="36" t="s">
+      <c r="I10" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>23</v>
@@ -1045,245 +1084,417 @@
         <v>23</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:9" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="2:9" s="37" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
+      <c r="E18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="36" t="s">
+      <c r="I18" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="2:9" s="16" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>47</v>
+      <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B16:I16"/>
+  <mergeCells count="18">
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G2:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G2:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="B9:I9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>

--- a/Test-Case-Template.xlsx
+++ b/Test-Case-Template.xlsx
@@ -552,6 +552,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -592,12 +598,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -929,76 +929,76 @@
   <sheetData>
     <row r="1" spans="2:9" ht="3.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="23">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25">
         <v>45387</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="20"/>
@@ -1020,13 +1020,13 @@
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
@@ -1480,6 +1480,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B5:C5"/>
@@ -1496,8 +1498,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
